--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_auto_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_auto_update.xlsx
@@ -811,7 +811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,7 +897,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -957,7 +959,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1013,7 +1015,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>

--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_auto_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_auto_update.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <r>
       <t xml:space="preserve">name: </t>
@@ -463,6 +463,9 @@
       </rPr>
       <t>0</t>
     </r>
+  </si>
+  <si>
+    <t>pledge_agreement_id</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -817,258 +820,271 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>58</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2010</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>61</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>64</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>59</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2011</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>62</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>57</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>60</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2012</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>63</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>66</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>54</v>
       </c>
     </row>
